--- a/BalanceSheet/STX_bal.xlsx
+++ b/BalanceSheet/STX_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>35000000.0</v>
+        <v>1281000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>5000000.0</v>
+        <v>1318000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-181000000.0</v>
+        <v>1323000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-40000000.0</v>
+        <v>1142000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>46000000.0</v>
+        <v>1102000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1148000000.0</v>
@@ -1838,19 +1838,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>135000000.0</v>
+        <v>1861000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>-51000000.0</v>
+        <v>1730000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-24000000.0</v>
+        <v>1795000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-30000000.0</v>
+        <v>1808000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-34000000.0</v>
+        <v>1830000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>1870000000.0</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>6000000.0</v>
+        <v>-1118000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>5000000.0</v>
+        <v>-1120000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>-18000000.0</v>
+        <v>-1125000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-9000000.0</v>
+        <v>-1120000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>7000000.0</v>
+        <v>-1112000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>-1119000000.0</v>
@@ -4395,7 +4395,7 @@
         <v>2552000000.0</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>2462000000.0</v>
+        <v>2397000000.0</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>2356000000.0</v>
@@ -4522,7 +4522,7 @@
         <v>4168000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>4210000000.0</v>
+        <v>4141000000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>4140000000.0</v>
